--- a/output.xlsx
+++ b/output.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_files\ZH--Create-question-bank\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBE272E-474E-49B6-879D-22B8AB71CFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Phần sức khỏe bệnh lý" sheetId="1" r:id="rId1"/>
     <sheet name="Phần thông tin sản phẩm" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1041,8 +1035,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1094,39 +1088,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1164,7 +1143,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1198,7 +1177,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1233,10 +1211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1409,29 +1386,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="79.90625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.08984375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1441,14 +1410,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -1458,14 +1427,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -1475,14 +1444,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -1492,14 +1461,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
@@ -1509,14 +1478,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
@@ -1526,14 +1495,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
@@ -1543,14 +1512,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
@@ -1560,14 +1529,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
@@ -1577,14 +1546,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
@@ -1594,14 +1563,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
@@ -1611,14 +1580,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
@@ -1628,14 +1597,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
@@ -1645,14 +1614,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
@@ -1662,14 +1631,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
@@ -1679,14 +1648,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
@@ -1696,14 +1665,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
@@ -1713,14 +1682,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>23</v>
       </c>
       <c r="D18" t="s">
@@ -1730,14 +1699,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
@@ -1747,14 +1716,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
@@ -1764,14 +1733,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
@@ -1781,14 +1750,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="s">
@@ -1798,14 +1767,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="s">
@@ -1815,14 +1784,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
@@ -1832,14 +1801,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="s">
@@ -1849,14 +1818,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
@@ -1866,14 +1835,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
@@ -1883,14 +1852,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
@@ -1900,14 +1869,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" t="s">
@@ -1917,14 +1886,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30" t="s">
@@ -1934,14 +1903,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
       <c r="D31" t="s">
@@ -1951,14 +1920,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>37</v>
       </c>
       <c r="D32" t="s">
@@ -1968,14 +1937,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>38</v>
       </c>
       <c r="D33" t="s">
@@ -1985,14 +1954,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>39</v>
       </c>
       <c r="D34" t="s">
@@ -2002,14 +1971,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
@@ -2019,14 +1988,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>41</v>
       </c>
       <c r="D36" t="s">
@@ -2036,14 +2005,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>42</v>
       </c>
       <c r="D37" t="s">
@@ -2053,14 +2022,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>43</v>
       </c>
       <c r="D38" t="s">
@@ -2070,14 +2039,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>44</v>
       </c>
       <c r="D39" t="s">
@@ -2087,14 +2056,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>45</v>
       </c>
       <c r="D40" t="s">
@@ -2104,14 +2073,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>46</v>
       </c>
       <c r="D41" t="s">
@@ -2121,14 +2090,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>47</v>
       </c>
       <c r="D42" t="s">
@@ -2138,14 +2107,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>48</v>
       </c>
       <c r="D43" t="s">
@@ -2155,14 +2124,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>49</v>
       </c>
       <c r="D44" t="s">
@@ -2172,14 +2141,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>50</v>
       </c>
       <c r="D45" t="s">
@@ -2189,14 +2158,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s">
         <v>51</v>
       </c>
       <c r="D46" t="s">
@@ -2206,14 +2175,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>52</v>
       </c>
       <c r="D47" t="s">
@@ -2223,14 +2192,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s">
         <v>53</v>
       </c>
       <c r="D48" t="s">
@@ -2240,14 +2209,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s">
         <v>54</v>
       </c>
       <c r="D49" t="s">
@@ -2257,14 +2226,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="s">
         <v>55</v>
       </c>
       <c r="D50" t="s">
@@ -2274,14 +2243,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" t="s">
         <v>56</v>
       </c>
       <c r="D51" t="s">
@@ -2297,886 +2266,877 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="72.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.36328125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="4"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+    <row r="12" spans="1:5">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+    <row r="15" spans="1:5">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+    <row r="20" spans="1:5">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+    <row r="21" spans="1:5">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+    <row r="30" spans="1:5">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+    <row r="34" spans="1:5">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+    <row r="36" spans="1:5">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+    <row r="39" spans="1:5">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+    <row r="40" spans="1:5">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>195</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+    <row r="41" spans="1:5">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>197</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>198</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+    <row r="44" spans="1:5">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+    <row r="45" spans="1:5">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
+    <row r="46" spans="1:5">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>201</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+    <row r="47" spans="1:5">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>202</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>197</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
+    <row r="49" spans="1:5">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>197</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" t="s">
         <v>106</v>
       </c>
     </row>
